--- a/ws-log_1/DadosDesafio1.xlsx
+++ b/ws-log_1/DadosDesafio1.xlsx
@@ -453,92 +453,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>Dez</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>238</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165</v>
+        <v>378</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212</v>
+        <v>425</v>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Set</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418</v>
+        <v>310</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ago</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481</v>
+        <v>350</v>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -548,62 +548,62 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>472</v>
+        <v>188</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Fev</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>Set</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>232</v>
+        <v>465</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Abr</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dez</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
